--- a/Domain_Model.xlsx
+++ b/Domain_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vytisvadoklis/Desktop/takeaway-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF4D61D-0A16-A042-B8C7-5DBA2E4D7BC4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7355B4E-4632-7448-A05E-3EC8522583F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{FFB222A4-2129-A144-8C04-1D972EFE2B18}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t xml:space="preserve">Messages </t>
   </si>
   <si>
-    <t>TakeAway</t>
+    <t>Takeaway</t>
   </si>
   <si>
-    <t>see_list_of_dishes; select_available_dishes; check_total; text_msg;</t>
+    <t xml:space="preserve">print_menu; </t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>

--- a/Domain_Model.xlsx
+++ b/Domain_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vytisvadoklis/Desktop/takeaway-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7355B4E-4632-7448-A05E-3EC8522583F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428FC9CC-939A-0B4C-A2A2-9491CE6E34A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{FFB222A4-2129-A144-8C04-1D972EFE2B18}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Objects</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t xml:space="preserve">print_menu; </t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print; </t>
   </si>
 </sst>
 </file>
@@ -425,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AA2CFE-CAEF-6344-89DD-9FD35A81C05D}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,8 +458,12 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>

--- a/Domain_Model.xlsx
+++ b/Domain_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vytisvadoklis/Desktop/takeaway-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428FC9CC-939A-0B4C-A2A2-9491CE6E34A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E974C7-5F7B-FA49-9529-A912AA257638}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{FFB222A4-2129-A144-8C04-1D972EFE2B18}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="16500" xr2:uid="{FFB222A4-2129-A144-8C04-1D972EFE2B18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Objects</t>
   </si>
@@ -36,13 +36,10 @@
     <t>Takeaway</t>
   </si>
   <si>
-    <t xml:space="preserve">print_menu; </t>
+    <t xml:space="preserve">Twilio </t>
   </si>
   <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print; </t>
+    <t>messenger(Twilio); menu; order; total</t>
   </si>
 </sst>
 </file>
@@ -432,7 +429,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,19 +451,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
